--- a/excel_files/4.2.1.xlsx
+++ b/excel_files/4.2.1.xlsx
@@ -139,12 +139,6 @@
     <t>According to Multiple Indicator Cluster Survey, 2018.</t>
   </si>
   <si>
-    <t>по полу</t>
-  </si>
-  <si>
-    <t>by sex</t>
-  </si>
-  <si>
     <t>мужской</t>
   </si>
   <si>
@@ -157,9 +151,6 @@
     <t>female</t>
   </si>
   <si>
-    <t xml:space="preserve">образование матери </t>
-  </si>
-  <si>
     <t>беднейший</t>
   </si>
   <si>
@@ -178,9 +169,6 @@
     <t>высшее</t>
   </si>
   <si>
-    <t>квинтиль по индексу благосостояния</t>
-  </si>
-  <si>
     <t>второй</t>
   </si>
   <si>
@@ -196,9 +184,6 @@
     <t>(*)</t>
   </si>
   <si>
-    <t>education of mother</t>
-  </si>
-  <si>
     <t>no education / primary</t>
   </si>
   <si>
@@ -214,9 +199,6 @@
     <t>higher</t>
   </si>
   <si>
-    <t>wealth quintile</t>
-  </si>
-  <si>
     <t>poorest</t>
   </si>
   <si>
@@ -235,18 +217,12 @@
     <t>4.2.1 Аймактар боюнча саламаттыгы, окуусу жана психикалык бакубатчылыгы жактан четтөөсүз өсүп жаткан беш жашка чейинки жаштагы балдардын үлүшү</t>
   </si>
   <si>
-    <t>жынысы боюнча</t>
-  </si>
-  <si>
     <t>эркек</t>
   </si>
   <si>
     <t>аял</t>
   </si>
   <si>
-    <t xml:space="preserve">энесинин билими </t>
-  </si>
-  <si>
     <t>билими жок/баштапкы</t>
   </si>
   <si>
@@ -278,6 +254,30 @@
   </si>
   <si>
     <t>Жетиштүү жашоо индекси боюнча  квинтиль</t>
+  </si>
+  <si>
+    <t>Жынысы боюнча</t>
+  </si>
+  <si>
+    <t>По полу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Образование матери </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Энесинин билими </t>
+  </si>
+  <si>
+    <t>Квинтиль по индексу благосостояния</t>
+  </si>
+  <si>
+    <t>By sex</t>
+  </si>
+  <si>
+    <t>Education of mother</t>
+  </si>
+  <si>
+    <t>Wealth quintile</t>
   </si>
 </sst>
 </file>
@@ -916,9 +916,7 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -927,7 +925,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="18" customFormat="1" ht="49.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>38</v>
@@ -1129,26 +1127,26 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="31" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D14" s="14"/>
       <c r="E14" s="27"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="14">
         <v>76.099999999999994</v>
@@ -1159,13 +1157,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>44</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="D16" s="14">
         <v>80.599999999999994</v>
@@ -1176,43 +1174,43 @@
     </row>
     <row r="17" spans="1:5" s="35" customFormat="1">
       <c r="A17" s="31" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="34"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D19" s="14">
         <v>70.099999999999994</v>
@@ -1223,13 +1221,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D20" s="14">
         <v>77.2</v>
@@ -1240,13 +1238,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="14">
         <v>80.8</v>
@@ -1257,13 +1255,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22" s="14">
         <v>81.8</v>
@@ -1274,26 +1272,26 @@
     </row>
     <row r="23" spans="1:5" s="35" customFormat="1">
       <c r="A23" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="33"/>
       <c r="E23" s="34"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="37" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D24" s="14">
         <v>76.5</v>
@@ -1304,13 +1302,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="37" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D25" s="14">
         <v>80.3</v>
@@ -1321,13 +1319,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="37" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D26" s="14">
         <v>73</v>
@@ -1338,13 +1336,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="37" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D27" s="14">
         <v>79.3</v>
@@ -1355,13 +1353,13 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1">
       <c r="A28" s="38" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D28" s="19">
         <v>84.3</v>

--- a/excel_files/4.2.1.xlsx
+++ b/excel_files/4.2.1.xlsx
@@ -115,30 +115,12 @@
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
   <si>
-    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2018-ж.</t>
-  </si>
-  <si>
-    <t>По данным кластерного обследования по многим показателям, 2018г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Көп индикаторлуу кластердик изилдөөнүн маалыматтары боюнча, 2014-ж.</t>
-  </si>
-  <si>
-    <t>По данным много индикаторного кластерного обследования, 2014г.</t>
-  </si>
-  <si>
-    <t>According to Multiple Indicator Cluster Survey, 2014</t>
-  </si>
-  <si>
     <t>4.2.1 Доля детей в возрасте до пяти лет, которые развиваются без отклонений в плане здоровья, обучения  и психосоциального благополучия в разбивке по территории</t>
   </si>
   <si>
     <t>4.2.1 Proportion of children under 5 years of age who are developmentally on track in health, learning and psychosocial well-being, by territory</t>
   </si>
   <si>
-    <t>According to Multiple Indicator Cluster Survey, 2018.</t>
-  </si>
-  <si>
     <t>мужской</t>
   </si>
   <si>
@@ -278,6 +260,24 @@
   </si>
   <si>
     <t>Wealth quintile</t>
+  </si>
+  <si>
+    <t>(пайыз менен)</t>
+  </si>
+  <si>
+    <t>(в процентах)</t>
+  </si>
+  <si>
+    <t>(in per cent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Көп көрсөткүчтүү кластердик изилдөөнүн маалыматтары боюнча, 2014-ж., 2018-ж., 2023-ж.</t>
+  </si>
+  <si>
+    <t>По данным кластерного обследования по многим показателям, 2014г., 2018г., 2023г.</t>
+  </si>
+  <si>
+    <t>According to the Multiple Indicator Cluster Survey, 2014, 2018, 2023</t>
   </si>
 </sst>
 </file>
@@ -289,7 +289,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ _р_._-;\-* #,##0.00\ _р_._-;_-* &quot;-&quot;??\ _р_._-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +418,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -555,9 +562,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,6 +592,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -914,482 +921,560 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="48.28515625" customWidth="1"/>
+    <col min="1" max="3" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="18" customFormat="1" ht="49.5" customHeight="1">
+    <row r="1" spans="1:6" s="18" customFormat="1" ht="55.5" customHeight="1">
       <c r="A1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2014</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="20">
+        <v>78.3</v>
+      </c>
+      <c r="E5" s="22">
+        <v>71.7</v>
+      </c>
+      <c r="F5" s="22">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14">
+        <v>81.2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>83.3</v>
+      </c>
+      <c r="F6" s="21">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14">
+        <v>87.1</v>
+      </c>
+      <c r="E7" s="21">
+        <v>63.9</v>
+      </c>
+      <c r="F7" s="21">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="14">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="E8" s="21">
+        <v>79.8</v>
+      </c>
+      <c r="F8" s="21">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="14">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E9" s="21">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="F9" s="21">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="14">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="E10" s="21">
+        <v>65.8</v>
+      </c>
+      <c r="F10" s="21">
+        <v>81.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="14">
+        <v>84.9</v>
+      </c>
+      <c r="E11" s="21">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F11" s="21">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14">
+        <v>73.5</v>
+      </c>
+      <c r="E12" s="23">
+        <v>72</v>
+      </c>
+      <c r="F12" s="23">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14">
+        <v>87.4</v>
+      </c>
+      <c r="E13" s="21">
+        <v>81.3</v>
+      </c>
+      <c r="F13" s="21">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="14">
+        <v>52</v>
+      </c>
+      <c r="E14" s="26">
+        <v>71.5</v>
+      </c>
+      <c r="F14" s="26">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="E16" s="26">
+        <v>68.2</v>
+      </c>
+      <c r="F16" s="26">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="14">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="E17" s="28">
+        <v>75</v>
+      </c>
+      <c r="F17" s="28">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="34" customFormat="1">
+      <c r="A18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="14">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="E20" s="28">
+        <v>71</v>
+      </c>
+      <c r="F20" s="28">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="14">
+        <v>77.2</v>
+      </c>
+      <c r="E21" s="26">
+        <v>73.8</v>
+      </c>
+      <c r="F21" s="26">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="B22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="14">
+        <v>80.8</v>
+      </c>
+      <c r="E22" s="26">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F22" s="26">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="14">
+        <v>81.8</v>
+      </c>
+      <c r="E23" s="26">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="F23" s="26">
+        <v>74.599999999999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="34" customFormat="1">
+      <c r="A24" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="17"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2014</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="20">
-        <v>78.3</v>
-      </c>
-      <c r="E4" s="22">
-        <v>71.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="14">
-        <v>81.2</v>
-      </c>
-      <c r="E5" s="21">
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14">
-        <v>87.1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>63.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="14">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="E7" s="21">
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="E8" s="21">
-        <v>72.400000000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="14">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="E9" s="21">
-        <v>65.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="14">
-        <v>84.9</v>
-      </c>
-      <c r="E10" s="21">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="14">
-        <v>73.5</v>
-      </c>
-      <c r="E11" s="23">
+      <c r="C25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="14">
+        <v>76.5</v>
+      </c>
+      <c r="E25" s="26">
+        <v>72.5</v>
+      </c>
+      <c r="F25" s="26">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="14">
+        <v>80.3</v>
+      </c>
+      <c r="E26" s="26">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="F26" s="26">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="14">
+        <v>73</v>
+      </c>
+      <c r="E27" s="26">
+        <v>67.2</v>
+      </c>
+      <c r="F27" s="26">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="14">
+        <v>79.3</v>
+      </c>
+      <c r="E28" s="28">
+        <v>71</v>
+      </c>
+      <c r="F28" s="28">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="37" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14">
-        <v>87.4</v>
-      </c>
-      <c r="E12" s="21">
-        <v>81.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="14">
-        <v>52</v>
-      </c>
-      <c r="E13" s="27">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="B29" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="19">
+        <v>84.3</v>
+      </c>
+      <c r="E29" s="29">
+        <v>78</v>
+      </c>
+      <c r="F29" s="29">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.25" customHeight="1">
+      <c r="A30" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="14">
-        <v>76.099999999999994</v>
-      </c>
-      <c r="E15" s="27">
-        <v>68.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="14">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="E16" s="29">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="35" customFormat="1">
-      <c r="A17" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="B30" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="14">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="E19" s="29">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="14">
-        <v>77.2</v>
-      </c>
-      <c r="E20" s="27">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="14">
-        <v>80.8</v>
-      </c>
-      <c r="E21" s="27">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="14">
-        <v>81.8</v>
-      </c>
-      <c r="E22" s="27">
-        <v>69.599999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="35" customFormat="1">
-      <c r="A23" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="31" t="s">
+      <c r="C30" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="14">
-        <v>76.5</v>
-      </c>
-      <c r="E24" s="27">
-        <v>72.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="14">
-        <v>80.3</v>
-      </c>
-      <c r="E25" s="27">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="14">
-        <v>73</v>
-      </c>
-      <c r="E26" s="27">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="14">
-        <v>79.3</v>
-      </c>
-      <c r="E27" s="29">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A28" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="19">
-        <v>84.3</v>
-      </c>
-      <c r="E28" s="30">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="22.5">
-      <c r="A29" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" ht="22.5">
-      <c r="A30" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>40</v>
-      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
